--- a/Jav1x/evidence.xlsx
+++ b/Jav1x/evidence.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahsim\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GON\Jav1x\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D861D8-9B9D-48DC-AE61-343685F5D1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157F44F3-888D-4B3B-B144-8681408F3133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="35">
   <si>
     <t>TeamName</t>
   </si>
@@ -84,15 +84,9 @@
     <t>tx hash on irisnet</t>
   </si>
   <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
@@ -148,6 +142,18 @@
   </si>
   <si>
     <t>omniflix1l23e3s7a85puq7v4p2fuyppr454antkdwzz9um</t>
+  </si>
+  <si>
+    <t>B37ECC9D29AFD159DA1E3A7120F44A53F8539A05ECE567AAD4B6E2DBD5E3A0E1</t>
+  </si>
+  <si>
+    <t>jav1xgon1</t>
+  </si>
+  <si>
+    <t>43DA6B57F90E244DBAC3E0833EF58906BC8279B2E513BF2EBE36320943FB867E</t>
+  </si>
+  <si>
+    <t>jav1xgon</t>
   </si>
 </sst>
 </file>
@@ -210,7 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -644,28 +650,28 @@
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -691,15 +697,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -725,15 +731,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -759,15 +765,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -793,15 +799,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -827,25 +833,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -871,25 +877,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -915,25 +921,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -959,25 +965,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1003,25 +1009,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1047,25 +1053,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1078,7 +1084,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1094,16 +1102,16 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1124,25 +1132,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1168,25 +1176,25 @@
         <v>8</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1213,12 +1221,12 @@
     </row>
     <row r="2" spans="1:1" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1245,12 +1253,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1277,12 +1285,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1309,12 +1317,12 @@
     </row>
     <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1327,7 +1335,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1343,18 +1353,18 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1384,24 +1394,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1431,24 +1441,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1478,24 +1488,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1526,24 +1536,24 @@
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1569,15 +1579,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1603,15 +1613,15 @@
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
